--- a/biology/Botanique/Aquabase/Aquabase.xlsx
+++ b/biology/Botanique/Aquabase/Aquabase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La base de données collaborative en aquariophilie
 Aquabase.org ou La base de données collaborative en aquariophilie était un site en ligne en français sur l'aquariophilie, l'ichtyologie et les poissons de manière générale. Aquabase.org est un site 100% amateur et entièrement gratuit créé dans sa première version en 1999 par Ludovic ROBINOT. Aquabase.org avait pour but et par la collaboration de tous de fournir tous types de renseignements sur l'aquariophilie en général. Composé de plusieurs milliers d'ébauches sur les poissons, les plantes aquatiques, et le matériel nécessaire à la bonne maintenance du vivant aquatique de loisir, Aquabase.org a longtemps été une référence en la matière avec plus de 600 000 membres inscrits et une équipe de plus de 20 bénévoles a sa barre. 
 Après la parution de la V2 du site en 2004, le site n'évolue plus considérablement et reste en ligne ainsi depuis.
 Selon la base de données des marques INPI, la marque Aquabase est déposée par plusieurs entreprises, tant dans l'Union Européenne qu'en qualité de marque internationale dans les domaines aquatiques et industriels.
 Le 10 octobre 2013, le co-webmaster Jean-Michel VALLS - Rami13500 sous son pseudo - quitte le site.
-Le mardi 17 octobre 2017, le site annonce une fermeture prochaine, toutes les pages sont alors inaccessibles, hormis celle d'accueil, cette dernière quitte la toile, définitivement, le 31 octobre 2017 et avec elle un forum vieux de plus de dix-huit années[1].
+Le mardi 17 octobre 2017, le site annonce une fermeture prochaine, toutes les pages sont alors inaccessibles, hormis celle d'accueil, cette dernière quitte la toile, définitivement, le 31 octobre 2017 et avec elle un forum vieux de plus de dix-huit années.
 Parmi ses membres les plus actifs et investis :
 - ankou92
 - Aymerix (cowebmaster)
